--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,102 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Size_STD</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity_STD</t>
         </is>
       </c>
     </row>
@@ -570,1024 +545,848 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4751071929931641</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>0.592523992061615</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4944792091846466</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3138517439365387</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9560918211936951</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08330223709344864</v>
+        <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09876348823308945</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3474661111831665</v>
+        <v>89</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8469153642654419</v>
+        <v>89</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7615082859992981</v>
+        <v>80</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8828067779541016</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.880169153213501</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8024652004241943</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.8510614633560181</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.354</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>0.067</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9258437342941761</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3786603417247534</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5012393388897181</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8390225116163492</v>
+        <v>78</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4980042995885015</v>
+        <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6530217612162232</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7788593983277678</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5247575370594859</v>
+        <v>37</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2575791087001562</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2037950828671455</v>
+        <v>28</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3655123626813293</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.05190562084317207</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2880499744787812</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.001177608966827393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.354</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>0.391</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>0.067</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5068775732070208</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7676903400570154</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1315406393259764</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2439088057726622</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1938121616840363</v>
+        <v>92</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9373573698103428</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2684768345206976</v>
+        <v>28</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9186258167028427</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02365862112492323</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2859283965080976</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1637979997321963</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3043567501008511</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5949573069810867</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.5256017073988914</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.354</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.391</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.067</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0835912823677063</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2022570455446839</v>
+        <v>73</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8727367678657174</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7222054665908217</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7270959783345461</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3653795467689633</v>
+        <v>62</v>
       </c>
       <c r="K5" t="n">
-        <v>0.603777039796114</v>
+        <v>75</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2091984301805496</v>
+        <v>59</v>
       </c>
       <c r="M5" t="n">
-        <v>0.621852426789701</v>
+        <v>64</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7496836939826608</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5840302789583802</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6325873639434576</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1117691872641444</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.3715792652219534</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.354</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>0.391</v>
+        <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>0.067</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2273862604051828</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.929015682078898</v>
+        <v>54</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7447297777980566</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5236995536834002</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5361599465832114</v>
+        <v>77</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2396795311942697</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4863973073661327</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7675425726920366</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2201448082923889</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05830026604235172</v>
+        <v>71</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07851282320916653</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.555741417221725</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.706118842586875</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.1860759509727359</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.354</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6819074079394341</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1038167644292116</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2514889622107148</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002007911913096905</v>
+        <v>64</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01169764716178179</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5591511577367783</v>
+        <v>63</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6354873608797789</v>
+        <v>97</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1048681158572435</v>
+        <v>66</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6304424218833447</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9695603298023343</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6580316312611103</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.3842543298378587</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1878631608560681</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.9616799699142575</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>0.067</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7591529618948698</v>
+        <v>92</v>
       </c>
       <c r="F8" t="n">
-        <v>0.746017737314105</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8812871994450688</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9071266939863563</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2973330467939377</v>
+        <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7812242479994893</v>
+        <v>91</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1307218810543418</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4673642078414559</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9007933819666505</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5202090321108699</v>
+        <v>89</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8595027551054955</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1366806486621499</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.8824076168239117</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.4411669345572591</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.354</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>0.067</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3396510295569897</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2880134703591466</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1224823761731386</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
-        <v>0.432309141382575</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7798060197383165</v>
+        <v>66</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4590060375630856</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9975162269547582</v>
+        <v>45</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6601585606113076</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4986210213974118</v>
+        <v>81</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4529679082334042</v>
+        <v>40</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3765558693557978</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.8082111431285739</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.3953637918457389</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.6616566209122539</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.354</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>0.067</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2706317817792296</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8148066401481628</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9784287456423044</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1032068459317088</v>
+        <v>40</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3831966035068035</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2973936172202229</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4049804313108325</v>
+        <v>69</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8555614203214645</v>
+        <v>48</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1403879523277283</v>
+        <v>94</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6864901669323444</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4778002221137285</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.9389952206984162</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.1486205831170082</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.3750044256448746</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.354</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
-        <v>0.391</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>0.067</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8200164036825299</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1556310383602977</v>
+        <v>92</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01851311791688204</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6131816003471613</v>
+        <v>73</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9126963000744581</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9936347268521786</v>
+        <v>73</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7247166717424989</v>
+        <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02201999723911285</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7297317199409008</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3491830183193088</v>
+        <v>63</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7743638604879379</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.1112452475354075</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.6361088259145617</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.7248887252062559</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.354</v>
+        <v>74</v>
       </c>
       <c r="C12" t="n">
-        <v>0.391</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
-        <v>0.067</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7389256088063121</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>0.514646022580564</v>
+        <v>66</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6455208966508508</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4541566055268049</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6534261582419276</v>
+        <v>41</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7129526296630502</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2280078902840614</v>
+        <v>14</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4096464542672038</v>
+        <v>70</v>
       </c>
       <c r="M12" t="n">
-        <v>0.989036270417273</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1425399007275701</v>
+        <v>45</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6962914727628231</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.362692634575069</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.4498708713799715</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.2473558690398932</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.354</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.391</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>0.067</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1623342642560601</v>
+        <v>96</v>
       </c>
       <c r="F13" t="n">
-        <v>0.457024808973074</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3575412910431623</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9485035454854369</v>
+        <v>90</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1756852278485894</v>
+        <v>72</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0194581001996994</v>
+        <v>39</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8924177680164576</v>
+        <v>83</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7128238407894969</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3908499823883176</v>
+        <v>69</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8228245694190264</v>
+        <v>98</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05538178794085979</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.69046023581177</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.968647257424891</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.9013778045773506</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.354</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.391</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>0.067</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02681710850447416</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6676552928984165</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2277051443234086</v>
+        <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7974010277539492</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1234514974057674</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3912518061697483</v>
+        <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009290026500821114</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2794220009818673</v>
+        <v>56</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7632512990385294</v>
+        <v>62</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3892078930512071</v>
+        <v>37</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5613999674096704</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.6228971220552921</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.3735594637691975</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.5878572361543775</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.354</v>
+        <v>58</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>0.067</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5721738273277879</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3658934598788619</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7677904721349478</v>
+        <v>84</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2917596651241183</v>
+        <v>87</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5787028502672911</v>
+        <v>60</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8372526513412595</v>
+        <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8605204075574875</v>
+        <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5983464578166604</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>0.352961203083396</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5839080717414618</v>
+        <v>86</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2025490282103419</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.4508859943598509</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.8572148894891143</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.3122527105733752</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.354</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.391</v>
+        <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>0.067</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9951072474941611</v>
+        <v>63</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9756399048492312</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3962473589926958</v>
+        <v>62</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6329670986160636</v>
+        <v>37</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8545727459713817</v>
+        <v>95</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6193385496735573</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3733311453834176</v>
+        <v>91</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9543565828353167</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1158048985525966</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9077691733837128</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2798899104818702</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.2023734208196402</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.04102830402553082</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.78587647061795</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.354</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>0.391</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.067</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4144877614453435</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05669867247343063</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6082687051966786</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1429535206407309</v>
+        <v>50</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3182695666328073</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1755960071459413</v>
+        <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5067351637408137</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>0.167812230065465</v>
+        <v>99</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5179847767576575</v>
+        <v>88</v>
       </c>
       <c r="N17" t="n">
-        <v>0.120030446909368</v>
+        <v>56</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9835732700303197</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.8743564300239086</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.5559566142037511</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.065387231297791</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
@@ -554,7 +554,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>96</v>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
         <v>35</v>
@@ -572,19 +572,19 @@
         <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
         <v>88</v>
       </c>
       <c r="M2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -607,7 +607,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
         <v>50</v>
@@ -622,10 +622,10 @@
         <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
         <v>36</v>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>19</v>
@@ -675,7 +675,7 @@
         <v>92</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>28</v>
@@ -687,7 +687,7 @@
         <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
         <v>53</v>
@@ -710,10 +710,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
         <v>73</v>
@@ -722,22 +722,22 @@
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" t="n">
         <v>75</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
@@ -757,22 +757,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="n">
         <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
         <v>49</v>
@@ -781,16 +781,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
         <v>71</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -837,7 +837,7 @@
         <v>63</v>
       </c>
       <c r="K7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L7" t="n">
         <v>66</v>
@@ -846,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
         <v>97</v>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
         <v>75</v>
@@ -872,16 +872,16 @@
         <v>89</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
         <v>47</v>
@@ -922,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>43</v>
@@ -940,19 +940,19 @@
         <v>66</v>
       </c>
       <c r="J9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" t="n">
         <v>81</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O9" t="n">
         <v>66</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>82</v>
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
         <v>40</v>
@@ -993,7 +993,7 @@
         <v>86</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
         <v>69</v>
@@ -1022,13 +1022,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="n">
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -1046,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" t="n">
         <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
         <v>11</v>
@@ -1075,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
         <v>51</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>45</v>
@@ -1090,7 +1090,7 @@
         <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
         <v>22</v>
@@ -1102,7 +1102,7 @@
         <v>99</v>
       </c>
       <c r="K12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
         <v>70</v>
@@ -1114,7 +1114,7 @@
         <v>45</v>
       </c>
       <c r="O12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
         <v>36</v>
@@ -1149,7 +1149,7 @@
         <v>89</v>
       </c>
       <c r="I13" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="n">
         <v>39</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" t="n">
         <v>97</v>
@@ -1208,7 +1208,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
         <v>56</v>
@@ -1217,10 +1217,10 @@
         <v>62</v>
       </c>
       <c r="N14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" t="n">
         <v>20</v>
@@ -1296,19 +1296,19 @@
         <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16" t="n">
         <v>11</v>
@@ -1317,7 +1317,7 @@
         <v>91</v>
       </c>
       <c r="L16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" t="n">
         <v>20</v>
@@ -1355,19 +1355,19 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" t="n">
         <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>99</v>
@@ -1376,7 +1376,7 @@
         <v>88</v>
       </c>
       <c r="N17" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
@@ -548,13 +548,13 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>96</v>
@@ -563,22 +563,22 @@
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
+        <v>89</v>
+      </c>
+      <c r="M2" t="n">
         <v>88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89</v>
       </c>
       <c r="N2" t="n">
         <v>81</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -625,13 +625,13 @@
         <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
         <v>36</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
         <v>29</v>
@@ -657,13 +657,13 @@
         <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
         <v>94</v>
@@ -675,7 +675,7 @@
         <v>92</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>28</v>
@@ -684,10 +684,10 @@
         <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" t="n">
         <v>53</v>
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
         <v>88</v>
@@ -722,10 +722,10 @@
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
         <v>63</v>
@@ -734,10 +734,10 @@
         <v>75</v>
       </c>
       <c r="L5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
@@ -769,10 +769,10 @@
         <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
         <v>49</v>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
         <v>71</v>
@@ -810,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
         <v>97</v>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
         <v>75</v>
@@ -872,13 +872,13 @@
         <v>89</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
@@ -887,13 +887,13 @@
         <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" t="n">
         <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
         <v>13</v>
@@ -928,10 +928,10 @@
         <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -952,7 +952,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" t="n">
         <v>66</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>82</v>
@@ -987,25 +987,25 @@
         <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="n">
         <v>86</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
         <v>69</v>
       </c>
       <c r="L10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>38</v>
@@ -1028,34 +1028,34 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
         <v>92</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="n">
         <v>73</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>73</v>
       </c>
       <c r="K11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
         <v>64</v>
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="n">
         <v>51</v>
@@ -1099,10 +1099,10 @@
         <v>41</v>
       </c>
       <c r="J12" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="n">
         <v>70</v>
@@ -1140,16 +1140,16 @@
         <v>95</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>89</v>
       </c>
       <c r="I13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" t="n">
         <v>39</v>
@@ -1167,7 +1167,7 @@
         <v>97</v>
       </c>
       <c r="O13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,13 +1181,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>80</v>
@@ -1199,25 +1199,25 @@
         <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" t="n">
         <v>39</v>
       </c>
       <c r="L14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14" t="n">
         <v>62</v>
       </c>
       <c r="N14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" t="n">
         <v>59</v>
@@ -1237,7 +1237,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>77</v>
@@ -1317,7 +1317,7 @@
         <v>91</v>
       </c>
       <c r="L16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
         <v>20</v>
@@ -1352,22 +1352,22 @@
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="n">
         <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>99</v>

--- a/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
+++ b/1st_round_screening/ACE/iteration_0/data/unlabeled_0.xlsx
@@ -548,13 +548,13 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>96</v>
@@ -566,16 +566,16 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" t="n">
         <v>76</v>
       </c>
       <c r="L2" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" t="n">
         <v>88</v>
@@ -610,19 +610,19 @@
         <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
         <v>78</v>
       </c>
       <c r="I3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>20</v>
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>29</v>
@@ -669,7 +669,7 @@
         <v>94</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
         <v>92</v>
@@ -684,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
         <v>59</v>
@@ -707,13 +707,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
         <v>73</v>
@@ -722,7 +722,7 @@
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -766,10 +766,10 @@
         <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="n">
         <v>24</v>
@@ -784,7 +784,7 @@
         <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -796,7 +796,7 @@
         <v>71</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -816,19 +816,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -837,7 +837,7 @@
         <v>63</v>
       </c>
       <c r="K7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7" t="n">
         <v>66</v>
@@ -846,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
         <v>97</v>
@@ -866,19 +866,19 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
         <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
@@ -887,13 +887,13 @@
         <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="n">
         <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
         <v>13</v>
@@ -919,7 +919,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
@@ -928,10 +928,10 @@
         <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -943,10 +943,10 @@
         <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>81</v>
@@ -955,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="O9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
         <v>41</v>
@@ -1002,13 +1002,13 @@
         <v>48</v>
       </c>
       <c r="M10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1025,16 +1025,16 @@
         <v>83</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="n">
         <v>99</v>
@@ -1055,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
         <v>64</v>
@@ -1078,7 +1078,7 @@
         <v>74</v>
       </c>
       <c r="C12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
         <v>65</v>
@@ -1093,19 +1093,19 @@
         <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
         <v>41</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" t="n">
         <v>14</v>
       </c>
       <c r="L12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
         <v>36</v>
@@ -1137,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>89</v>
       </c>
       <c r="I13" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="n">
         <v>39</v>
@@ -1167,7 +1167,7 @@
         <v>97</v>
       </c>
       <c r="O13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>67</v>
@@ -1190,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
@@ -1199,22 +1199,22 @@
         <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N14" t="n">
         <v>37</v>
@@ -1237,7 +1237,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>77</v>
@@ -1252,7 +1252,7 @@
         <v>84</v>
       </c>
       <c r="H15" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" t="n">
         <v>60</v>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" t="n">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" t="n">
         <v>86</v>
@@ -1305,7 +1305,7 @@
         <v>62</v>
       </c>
       <c r="H16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" t="n">
         <v>96</v>
@@ -1352,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>17</v>
